--- a/backend/tournament_1.xlsx
+++ b/backend/tournament_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>STT</t>
   </si>
@@ -729,9 +729,6 @@
     <t>DE16-A2.1-B2.2</t>
   </si>
   <si>
-    <t>Trọng Chương</t>
-  </si>
-  <si>
     <t>DE16-A3.1-B3.2</t>
   </si>
   <si>
@@ -760,9 +757,6 @@
   </si>
   <si>
     <t>QF-9-4</t>
-  </si>
-  <si>
-    <t>Hoàng Lâm</t>
   </si>
   <si>
     <t>SF</t>
@@ -1394,6 +1388,9 @@
   </si>
   <si>
     <t>Minh Tài</t>
+  </si>
+  <si>
+    <t>Trọng Chương</t>
   </si>
   <si>
     <t>DE16-A4.1-B4.2</t>
@@ -6107,7 +6104,7 @@
         <v>45</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="G83" s="9">
         <v>0.625</v>
@@ -6135,7 +6132,7 @@
         <v>234</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" t="s" s="2">
@@ -6170,7 +6167,7 @@
         <v>234</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" t="s" s="2">
@@ -6205,7 +6202,7 @@
         <v>234</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" t="s" s="2">
@@ -6240,7 +6237,7 @@
         <v>234</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" t="s" s="2">
@@ -6272,10 +6269,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s" s="3">
+        <v>241</v>
+      </c>
+      <c r="C88" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" t="s" s="2">
@@ -6299,7 +6296,7 @@
         <v>42921</v>
       </c>
       <c r="L88" t="s" s="23">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M88" s="5"/>
     </row>
@@ -6308,10 +6305,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s" s="3">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" t="s" s="2">
@@ -6335,7 +6332,7 @@
         <v>42862</v>
       </c>
       <c r="L89" t="s" s="23">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M89" s="5"/>
     </row>
@@ -6344,10 +6341,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s" s="3">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" t="s" s="2">
@@ -6372,7 +6369,7 @@
         <v>42918</v>
       </c>
       <c r="L90" t="s" s="23">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M90" s="5"/>
     </row>
@@ -6381,14 +6378,14 @@
         <v>92</v>
       </c>
       <c r="B91" t="s" s="3">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" t="s" s="2">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="F91" t="s" s="2">
         <f>'DE 9 Bi'!G2</f>
@@ -6408,7 +6405,7 @@
         <v>42919</v>
       </c>
       <c r="L91" t="s" s="23">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M91" s="5"/>
     </row>
@@ -6417,10 +6414,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s" s="3">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" t="s" s="2">
@@ -6448,10 +6445,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s" s="3">
+        <v>247</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" t="s" s="2">
@@ -6471,7 +6468,7 @@
       </c>
       <c r="J93" s="5"/>
       <c r="K93" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -6481,10 +6478,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s" s="3">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" t="s" s="2">
@@ -18437,10 +18434,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="28">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s" s="28">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="5"/>
@@ -18455,7 +18452,7 @@
         <v>187</v>
       </c>
       <c r="C2" t="s" s="14">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -18470,7 +18467,7 @@
         <v>221</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -18485,7 +18482,7 @@
         <v>210</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -18500,7 +18497,7 @@
         <v>106</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -18515,7 +18512,7 @@
         <v>72</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -18530,7 +18527,7 @@
         <v>166</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -18545,7 +18542,7 @@
         <v>137</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -18560,7 +18557,7 @@
         <v>134</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -18575,7 +18572,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -18587,10 +18584,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -18605,7 +18602,7 @@
         <v>211</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -18617,10 +18614,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -18635,7 +18632,7 @@
         <v>109</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -18650,7 +18647,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -18665,7 +18662,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -18680,7 +18677,7 @@
         <v>102</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -18695,7 +18692,7 @@
         <v>184</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -18710,7 +18707,7 @@
         <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -18725,7 +18722,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -18737,10 +18734,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -18752,10 +18749,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -18770,7 +18767,7 @@
         <v>77</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -18785,7 +18782,7 @@
         <v>215</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -18800,7 +18797,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -18815,10 +18812,10 @@
         <v>45</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -18832,7 +18829,7 @@
         <v>218</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -18847,7 +18844,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -18862,7 +18859,7 @@
         <v>163</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -18877,7 +18874,7 @@
         <v>160</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -18892,7 +18889,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -18907,7 +18904,7 @@
         <v>157</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -18922,7 +18919,7 @@
         <v>193</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -18934,10 +18931,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -18952,7 +18949,7 @@
         <v>21</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -18967,7 +18964,7 @@
         <v>53</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -18982,7 +18979,7 @@
         <v>156</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -18997,7 +18994,7 @@
         <v>25</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -19009,10 +19006,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -19027,7 +19024,7 @@
         <v>103</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -19042,7 +19039,7 @@
         <v>81</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -19057,7 +19054,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -19069,10 +19066,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -19084,10 +19081,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -19133,16 +19130,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>308</v>
+      </c>
+      <c r="D1" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="E1" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -19156,12 +19153,12 @@
         <v>42778</v>
       </c>
       <c r="K1" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" ht="15.05" customHeight="1">
       <c r="A2" t="s" s="33">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -19171,19 +19168,19 @@
       </c>
       <c r="D2" t="s" s="23">
         <f>$A$2&amp;"-"&amp;B$2&amp;"-"&amp;B3</f>
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s" s="2">
         <f>C$2&amp;" - "&amp;C3</f>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s" s="2">
         <f t="shared" si="2" ref="F2:F5">C$2</f>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s" s="2">
         <f>C3</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H2" s="31">
         <v>0.4166666666666666</v>
@@ -19208,19 +19205,19 @@
       </c>
       <c r="D3" t="s" s="23">
         <f>$A$2&amp;"-"&amp;B$2&amp;"-"&amp;B4</f>
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s" s="2">
         <f>C$2&amp;" - "&amp;C4</f>
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s" s="2">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G3" t="s" s="2">
         <f>C4</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H3" s="31">
         <v>0.4583333333333334</v>
@@ -19239,19 +19236,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s" s="35">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s" s="23">
         <f>$A$2&amp;"-"&amp;B$2&amp;"-"&amp;B5</f>
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s" s="2">
         <f>C$2&amp;" - "&amp;C5</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F4" t="s" s="2">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G4" s="6">
         <f>C5</f>
@@ -19276,15 +19273,15 @@
       <c r="C5" s="24"/>
       <c r="D5" t="s" s="2">
         <f>$A$2&amp;"-"&amp;B$2&amp;"-"&amp;B6</f>
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s" s="4">
         <f>C$2&amp;" - "&amp;C6</f>
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s" s="2">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G5" s="6">
         <f>C6</f>
@@ -19307,19 +19304,19 @@
       <c r="C6" s="5"/>
       <c r="D6" t="s" s="11">
         <f>$A$2&amp;"-"&amp;B$3&amp;"-"&amp;B4</f>
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" t="s" s="38">
         <f>C$3&amp;" - "&amp;C4</f>
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s" s="23">
         <f t="shared" si="18" ref="F6:F8">C$3</f>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G6" t="s" s="2">
         <f>C4</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H6" s="31">
         <v>0.5833333333333333</v>
@@ -19336,15 +19333,15 @@
       <c r="C7" s="5"/>
       <c r="D7" t="s" s="11">
         <f>$A$2&amp;"-"&amp;B$3&amp;"-"&amp;B5</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s" s="38">
         <f>C$3&amp;" - "&amp;C5</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F7" t="s" s="23">
         <f t="shared" si="18"/>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G7" s="6">
         <f>C5</f>
@@ -19365,15 +19362,15 @@
       <c r="C8" s="5"/>
       <c r="D8" t="s" s="11">
         <f>$A$2&amp;"-"&amp;B$3&amp;"-"&amp;B6</f>
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s" s="38">
         <f>C$3&amp;" - "&amp;C6</f>
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F8" t="s" s="23">
         <f t="shared" si="18"/>
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G8" s="6">
         <f>C6</f>
@@ -19394,15 +19391,15 @@
       <c r="C9" s="5"/>
       <c r="D9" t="s" s="11">
         <f>$A$2&amp;"-"&amp;B$4&amp;"-"&amp;B5</f>
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s" s="38">
         <f>C$4&amp;" - "&amp;C5</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F9" t="s" s="23">
         <f t="shared" si="30" ref="F9:F10">C$4</f>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G9" s="6">
         <f>C5</f>
@@ -19421,15 +19418,15 @@
       <c r="C10" s="5"/>
       <c r="D10" t="s" s="11">
         <f>$A$2&amp;"-"&amp;B$4&amp;"-"&amp;B6</f>
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s" s="38">
         <f>C$4&amp;" - "&amp;C6</f>
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s" s="23">
         <f t="shared" si="30"/>
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G10" s="6">
         <f>C6</f>
@@ -19448,11 +19445,11 @@
       <c r="C11" s="5"/>
       <c r="D11" t="s" s="11">
         <f>$A$2&amp;"-"&amp;B5&amp;"-"&amp;B6</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s" s="38">
         <f>C$5&amp;" - "&amp;C6</f>
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F11" s="37">
         <f>C5</f>
@@ -19553,7 +19550,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="22"/>
       <c r="D17" t="s" s="35">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="5"/>
@@ -19668,28 +19665,28 @@
         <v>207</v>
       </c>
       <c r="J1" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L1" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="M1" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="N1" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="O1" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="P1" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Q1" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -19704,67 +19701,67 @@
       </c>
       <c r="B2" t="s" s="2">
         <f>B$1&amp;"."&amp;$A2</f>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s" s="2">
         <f>C$1&amp;"."&amp;$A2</f>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s" s="2">
         <f>D$1&amp;"."&amp;$A2</f>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s" s="2">
         <f>E$1&amp;"."&amp;$A2</f>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s" s="2">
         <f>F$1&amp;"."&amp;$A2</f>
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s" s="2">
         <f>G$1&amp;"."&amp;$A2</f>
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s" s="2">
         <f>H$1&amp;"."&amp;$A2</f>
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I2" t="s" s="2">
         <f>I$1&amp;"."&amp;$A2</f>
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J2" t="s" s="2">
         <f>J$1&amp;"."&amp;$A2</f>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K2" t="s" s="2">
         <f>K$1&amp;"."&amp;$A2</f>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L2" t="s" s="2">
         <f>L$1&amp;"."&amp;$A2</f>
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M2" t="s" s="2">
         <f>M$1&amp;"."&amp;$A2</f>
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N2" t="s" s="2">
         <f>N$1&amp;"."&amp;$A2</f>
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O2" t="s" s="2">
         <f>O$1&amp;"."&amp;$A2</f>
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P2" t="s" s="2">
         <f>P$1&amp;"."&amp;$A2</f>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q2" t="s" s="2">
         <f>Q$1&amp;"."&amp;$A2</f>
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -19779,67 +19776,67 @@
       </c>
       <c r="B3" t="s" s="2">
         <f>B$1&amp;"."&amp;$A3</f>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s" s="2">
         <f>C$1&amp;"."&amp;$A3</f>
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s" s="2">
         <f>D$1&amp;"."&amp;$A3</f>
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s" s="2">
         <f>E$1&amp;"."&amp;$A3</f>
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F3" t="s" s="2">
         <f>F$1&amp;"."&amp;$A3</f>
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G3" t="s" s="2">
         <f>G$1&amp;"."&amp;$A3</f>
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H3" t="s" s="2">
         <f>H$1&amp;"."&amp;$A3</f>
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I3" t="s" s="2">
         <f>I$1&amp;"."&amp;$A3</f>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J3" t="s" s="2">
         <f>J$1&amp;"."&amp;$A3</f>
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K3" t="s" s="2">
         <f>K$1&amp;"."&amp;$A3</f>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L3" t="s" s="2">
         <f>L$1&amp;"."&amp;$A3</f>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M3" t="s" s="2">
         <f>M$1&amp;"."&amp;$A3</f>
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N3" t="s" s="2">
         <f>N$1&amp;"."&amp;$A3</f>
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O3" t="s" s="2">
         <f>O$1&amp;"."&amp;$A3</f>
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P3" t="s" s="2">
         <f>P$1&amp;"."&amp;$A3</f>
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q3" t="s" s="2">
         <f>Q$1&amp;"."&amp;$A3</f>
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -19879,11 +19876,11 @@
       </c>
       <c r="B5" t="s" s="2">
         <f>B$1&amp;"."&amp;$A2</f>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s" s="2">
         <f>F$1&amp;"."&amp;$A3</f>
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D5" t="s" s="2">
         <f>A5&amp;"-"&amp;B5&amp;"-"&amp;C5</f>
@@ -19904,20 +19901,20 @@
       <c r="Q5" s="5"/>
       <c r="R5" t="s" s="2">
         <f>B$1&amp;"."&amp;$A2</f>
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S5" t="s" s="2">
         <v>16</v>
       </c>
       <c r="T5" t="s" s="2">
         <f>B$1&amp;"."&amp;$A3</f>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>15</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W5" t="s" s="2">
         <f>U9</f>
@@ -19930,11 +19927,11 @@
       </c>
       <c r="B6" t="s" s="2">
         <f>C$1&amp;"."&amp;$A2</f>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6" t="s" s="2">
         <f>G$1&amp;"."&amp;$A3</f>
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s" s="2">
         <f>A6&amp;"-"&amp;B6&amp;"-"&amp;C6</f>
@@ -19955,24 +19952,24 @@
       <c r="Q6" s="5"/>
       <c r="R6" t="s" s="2">
         <f>C$1&amp;"."&amp;$A2</f>
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T6" t="s" s="2">
         <f>C$1&amp;"."&amp;$A3</f>
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>50</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W6" t="s" s="2">
         <f>U10</f>
-        <v>237</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
@@ -19981,15 +19978,15 @@
       </c>
       <c r="B7" t="s" s="2">
         <f>D$1&amp;"."&amp;$A2</f>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s" s="2">
         <f>H$1&amp;"."&amp;$A3</f>
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D7" t="s" s="2">
         <f>A7&amp;"-"&amp;B7&amp;"-"&amp;C7</f>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -20006,20 +20003,20 @@
       <c r="Q7" s="5"/>
       <c r="R7" t="s" s="2">
         <f>D$1&amp;"."&amp;$A2</f>
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
         <f>D$1&amp;"."&amp;$A3</f>
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W7" t="s" s="2">
         <f>U11</f>
@@ -20032,15 +20029,15 @@
       </c>
       <c r="B8" t="s" s="2">
         <f>E$1&amp;"."&amp;$A2</f>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C8" t="s" s="2">
         <f>I$1&amp;"."&amp;$A3</f>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D8" t="s" s="2">
         <f>A8&amp;"-"&amp;B8&amp;"-"&amp;C8</f>
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -20057,20 +20054,20 @@
       <c r="Q8" s="5"/>
       <c r="R8" t="s" s="2">
         <f>E$1&amp;"."&amp;$A2</f>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>103</v>
       </c>
       <c r="T8" t="s" s="2">
         <f>E$1&amp;"."&amp;$A3</f>
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>102</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="W8" t="s" s="2">
         <f>U12</f>
@@ -20083,15 +20080,15 @@
       </c>
       <c r="B9" t="s" s="2">
         <f>F$1&amp;"."&amp;$A2</f>
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s" s="2">
         <f>B$1&amp;"."&amp;$A3</f>
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D9" t="s" s="2">
         <f>A9&amp;"-"&amp;B9&amp;"-"&amp;C9</f>
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -20108,20 +20105,20 @@
       <c r="Q9" s="5"/>
       <c r="R9" t="s" s="2">
         <f>F$1&amp;"."&amp;$A2</f>
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S9" t="s" s="2">
         <v>130</v>
       </c>
       <c r="T9" t="s" s="2">
         <f>F$1&amp;"."&amp;$A3</f>
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W9" t="s" s="2">
         <f>U5</f>
@@ -20134,15 +20131,15 @@
       </c>
       <c r="B10" t="s" s="2">
         <f>G$1&amp;"."&amp;$A2</f>
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s" s="2">
         <f>C$1&amp;"."&amp;$A3</f>
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D10" t="s" s="2">
         <f>A10&amp;"-"&amp;B10&amp;"-"&amp;C10</f>
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -20159,20 +20156,20 @@
       <c r="Q10" s="5"/>
       <c r="R10" t="s" s="2">
         <f>G$1&amp;"."&amp;$A2</f>
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S10" t="s" s="2">
         <v>156</v>
       </c>
       <c r="T10" t="s" s="2">
         <f>G$1&amp;"."&amp;$A3</f>
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>237</v>
+        <v>373</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="W10" t="s" s="2">
         <f>U6</f>
@@ -20185,15 +20182,15 @@
       </c>
       <c r="B11" t="s" s="2">
         <f>H$1&amp;"."&amp;$A2</f>
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s" s="2">
         <f>D$1&amp;"."&amp;$A3</f>
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D11" t="s" s="2">
         <f>A11&amp;"-"&amp;B11&amp;"-"&amp;C11</f>
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -20210,20 +20207,20 @@
       <c r="Q11" s="5"/>
       <c r="R11" t="s" s="2">
         <f>H$1&amp;"."&amp;$A2</f>
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S11" t="s" s="2">
         <v>183</v>
       </c>
       <c r="T11" t="s" s="2">
         <f>H$1&amp;"."&amp;$A3</f>
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U11" t="s" s="2">
         <v>190</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W11" t="s" s="2">
         <f>U7</f>
@@ -20236,15 +20233,15 @@
       </c>
       <c r="B12" t="s" s="2">
         <f>I$1&amp;"."&amp;$A2</f>
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C12" t="s" s="2">
         <f>E$1&amp;"."&amp;$A3</f>
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D12" t="s" s="2">
         <f>A12&amp;"-"&amp;B12&amp;"-"&amp;C12</f>
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -20261,20 +20258,20 @@
       <c r="Q12" s="5"/>
       <c r="R12" t="s" s="2">
         <f>I$1&amp;"."&amp;$A2</f>
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>215</v>
       </c>
       <c r="T12" t="s" s="2">
         <f>I$1&amp;"."&amp;$A3</f>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>210</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W12" t="s" s="2">
         <f>U8</f>
@@ -20287,15 +20284,15 @@
       </c>
       <c r="B13" t="s" s="2">
         <f>J$1&amp;"."&amp;$A2</f>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C13" t="s" s="2">
         <f>N$1&amp;"."&amp;$A3</f>
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s" s="2">
         <f>A13&amp;"-"&amp;B13&amp;"-"&amp;C13</f>
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -20312,20 +20309,20 @@
       <c r="Q13" s="5"/>
       <c r="R13" t="s" s="2">
         <f>J$1&amp;"."&amp;$A2</f>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>25</v>
       </c>
       <c r="T13" t="s" s="2">
         <f>J$1&amp;"."&amp;$A3</f>
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W13" t="s" s="2">
         <f>U17</f>
@@ -20338,15 +20335,15 @@
       </c>
       <c r="B14" t="s" s="2">
         <f>K$1&amp;"."&amp;$A2</f>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s" s="2">
         <f>O$1&amp;"."&amp;$A3</f>
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s" s="2">
         <f>A14&amp;"-"&amp;B14&amp;"-"&amp;C14</f>
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -20363,20 +20360,20 @@
       <c r="Q14" s="5"/>
       <c r="R14" t="s" s="2">
         <f>K$1&amp;"."&amp;$A2</f>
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
         <f>K$1&amp;"."&amp;$A3</f>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W14" t="s" s="2">
         <f>U18</f>
@@ -20389,15 +20386,15 @@
       </c>
       <c r="B15" t="s" s="2">
         <f>L$1&amp;"."&amp;$A2</f>
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s" s="2">
         <f>P$1&amp;"."&amp;$A3</f>
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s" s="2">
         <f>A15&amp;"-"&amp;B15&amp;"-"&amp;C15</f>
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -20414,24 +20411,24 @@
       <c r="Q15" s="5"/>
       <c r="R15" t="s" s="2">
         <f>L$1&amp;"."&amp;$A2</f>
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>210</v>
       </c>
       <c r="T15" t="s" s="2">
         <f>L$1&amp;"."&amp;$A3</f>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W15" t="s" s="2">
         <f>U19</f>
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" ht="13.65" customHeight="1">
@@ -20440,15 +20437,15 @@
       </c>
       <c r="B16" t="s" s="2">
         <f>M$1&amp;"."&amp;$A2</f>
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C16" t="s" s="2">
         <f>Q$1&amp;"."&amp;$A3</f>
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s" s="2">
         <f>A16&amp;"-"&amp;B16&amp;"-"&amp;C16</f>
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -20465,20 +20462,20 @@
       <c r="Q16" s="5"/>
       <c r="R16" t="s" s="2">
         <f>M$1&amp;"."&amp;$A2</f>
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>156</v>
       </c>
       <c r="T16" t="s" s="2">
         <f>M$1&amp;"."&amp;$A3</f>
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>221</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W16" t="s" s="2">
         <f>U20</f>
@@ -20491,15 +20488,15 @@
       </c>
       <c r="B17" t="s" s="2">
         <f>N$1&amp;"."&amp;$A2</f>
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s" s="2">
         <f>J$1&amp;"."&amp;$A3</f>
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D17" t="s" s="2">
         <f>A17&amp;"-"&amp;B17&amp;"-"&amp;C17</f>
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -20516,20 +20513,20 @@
       <c r="Q17" s="5"/>
       <c r="R17" t="s" s="2">
         <f>N$1&amp;"."&amp;$A2</f>
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="T17" t="s" s="2">
         <f>N$1&amp;"."&amp;$A3</f>
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>190</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W17" t="s" s="2">
         <f>U13</f>
@@ -20542,15 +20539,15 @@
       </c>
       <c r="B18" t="s" s="2">
         <f>O$1&amp;"."&amp;$A2</f>
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C18" t="s" s="2">
         <f>K$1&amp;"."&amp;$A3</f>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D18" t="s" s="2">
         <f>A18&amp;"-"&amp;B18&amp;"-"&amp;C18</f>
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -20567,24 +20564,24 @@
       <c r="Q18" s="5"/>
       <c r="R18" t="s" s="2">
         <f>O$1&amp;"."&amp;$A2</f>
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>102</v>
       </c>
       <c r="T18" t="s" s="2">
         <f>O$1&amp;"."&amp;$A3</f>
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>15</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W18" t="s" s="2">
         <f>U14</f>
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
@@ -20593,15 +20590,15 @@
       </c>
       <c r="B19" t="s" s="2">
         <f>P$1&amp;"."&amp;$A2</f>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C19" t="s" s="2">
         <f>L$1&amp;"."&amp;$A3</f>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D19" t="s" s="2">
         <f>A19&amp;"-"&amp;B19&amp;"-"&amp;C19</f>
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -20618,20 +20615,20 @@
       <c r="Q19" s="5"/>
       <c r="R19" t="s" s="2">
         <f>P$1&amp;"."&amp;$A2</f>
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>130</v>
       </c>
       <c r="T19" t="s" s="2">
         <f>P$1&amp;"."&amp;$A3</f>
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W19" t="s" s="2">
         <f>U15</f>
@@ -20644,15 +20641,15 @@
       </c>
       <c r="B20" t="s" s="2">
         <f>Q$1&amp;"."&amp;$A2</f>
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C20" t="s" s="2">
         <f>M$1&amp;"."&amp;$A3</f>
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D20" t="s" s="2">
         <f>A20&amp;"-"&amp;B20&amp;"-"&amp;C20</f>
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -20669,20 +20666,20 @@
       <c r="Q20" s="5"/>
       <c r="R20" t="s" s="2">
         <f>Q$1&amp;"."&amp;$A2</f>
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>215</v>
       </c>
       <c r="T20" t="s" s="2">
         <f>Q$1&amp;"."&amp;$A3</f>
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>16</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W20" t="s" s="2">
         <f>U16</f>
@@ -20691,7 +20688,7 @@
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -20699,7 +20696,7 @@
       <c r="C21" s="5"/>
       <c r="D21" t="s" s="2">
         <f>A21&amp;"-9-"&amp;B21</f>
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -20723,7 +20720,7 @@
     </row>
     <row r="22" ht="13.65" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="6">
         <v>2</v>
@@ -20731,7 +20728,7 @@
       <c r="C22" s="5"/>
       <c r="D22" t="s" s="2">
         <f>A22&amp;"-9-"&amp;B22</f>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -20755,7 +20752,7 @@
     </row>
     <row r="23" ht="13.65" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -20763,7 +20760,7 @@
       <c r="C23" s="5"/>
       <c r="D23" t="s" s="2">
         <f>A23&amp;"-9-"&amp;B23</f>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -20787,7 +20784,7 @@
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="6">
         <v>4</v>
@@ -20795,7 +20792,7 @@
       <c r="C24" s="5"/>
       <c r="D24" t="s" s="2">
         <f>A24&amp;"-9-"&amp;B24</f>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -20819,7 +20816,7 @@
     </row>
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -20827,7 +20824,7 @@
       <c r="C25" s="5"/>
       <c r="D25" t="s" s="2">
         <f>A25&amp;"-10-"&amp;B25</f>
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -20851,7 +20848,7 @@
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="6">
         <v>2</v>
@@ -20859,7 +20856,7 @@
       <c r="C26" s="5"/>
       <c r="D26" t="s" s="2">
         <f>A26&amp;"-10-"&amp;B26</f>
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -20883,7 +20880,7 @@
     </row>
     <row r="27" ht="13.65" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
@@ -20891,7 +20888,7 @@
       <c r="C27" s="5"/>
       <c r="D27" t="s" s="2">
         <f>A27&amp;"-10-"&amp;B27</f>
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -20915,7 +20912,7 @@
     </row>
     <row r="28" ht="13.65" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="6">
         <v>4</v>
@@ -20923,7 +20920,7 @@
       <c r="C28" s="5"/>
       <c r="D28" t="s" s="2">
         <f>A28&amp;"-10-"&amp;B28</f>
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -20947,7 +20944,7 @@
     </row>
     <row r="29" ht="13.65" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -20955,7 +20952,7 @@
       <c r="C29" s="5"/>
       <c r="D29" t="s" s="2">
         <f>A29&amp;"-9-"&amp;B29</f>
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -20979,7 +20976,7 @@
     </row>
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -20987,7 +20984,7 @@
       <c r="C30" s="5"/>
       <c r="D30" t="s" s="2">
         <f>A30&amp;"-9-"&amp;B30</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -21011,7 +21008,7 @@
     </row>
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -21019,7 +21016,7 @@
       <c r="C31" s="5"/>
       <c r="D31" t="s" s="2">
         <f>A31&amp;"-10-"&amp;B31</f>
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -21043,7 +21040,7 @@
     </row>
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B32" s="6">
         <v>2</v>
@@ -21051,7 +21048,7 @@
       <c r="C32" s="5"/>
       <c r="D32" t="s" s="2">
         <f>A32&amp;"-10-"&amp;B32</f>
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -21075,7 +21072,7 @@
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B33" s="6">
         <v>9</v>
@@ -21083,7 +21080,7 @@
       <c r="C33" s="5"/>
       <c r="D33" t="s" s="2">
         <f>A33&amp;B33</f>
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -21107,7 +21104,7 @@
     </row>
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B34" s="6">
         <v>10</v>
@@ -21115,7 +21112,7 @@
       <c r="C34" s="5"/>
       <c r="D34" t="s" s="2">
         <f>A34&amp;B34</f>
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -21220,7 +21217,7 @@
         <v>42921</v>
       </c>
       <c r="C4" t="s" s="56">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22"/>
@@ -21234,7 +21231,7 @@
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="50">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="24"/>
@@ -21251,7 +21248,7 @@
         <v>42772</v>
       </c>
       <c r="B6" t="s" s="48">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="39"/>
@@ -21266,12 +21263,12 @@
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="50">
-        <v>237</v>
+        <v>373</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="22"/>
       <c r="D7" t="s" s="58">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="5"/>
@@ -21285,13 +21282,13 @@
       <c r="B8" s="5"/>
       <c r="C8" s="22"/>
       <c r="D8" t="s" s="59">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s" s="59">
         <v>156</v>
       </c>
       <c r="F8" t="s" s="23">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="54"/>
@@ -21533,7 +21530,7 @@
         <v>130</v>
       </c>
       <c r="H6" t="s" s="63">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
@@ -21560,7 +21557,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s" s="59">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="5"/>
@@ -21600,7 +21597,7 @@
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="50">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="39"/>
@@ -21609,7 +21606,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="52"/>
       <c r="H11" t="s" s="53">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1">
@@ -21623,7 +21620,7 @@
       <c r="D12" s="13"/>
       <c r="E12" s="22"/>
       <c r="F12" t="s" s="56">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G12" s="57">
         <v>42917</v>
@@ -21641,7 +21638,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="45"/>
       <c r="H13" t="s" s="53">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
@@ -21656,10 +21653,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="22"/>
       <c r="G14" t="s" s="48">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H14" t="s" s="63">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">

--- a/backend/tournament_1.xlsx
+++ b/backend/tournament_1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="349">
   <si>
     <t>STT</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Nguyễn Văn Phúc</t>
   </si>
   <si>
-    <t>Phúc bỏ cuộc</t>
-  </si>
-  <si>
     <t>A1-2-3</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Nguyen Hoang Lam</t>
   </si>
   <si>
-    <t>Lâm bỏ cuộc</t>
-  </si>
-  <si>
     <t>A3-1-3</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>Nguyễn Anh Minh</t>
   </si>
   <si>
-    <t>Minh bỏ cuộc</t>
-  </si>
-  <si>
     <t>A3-1-4</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>Trịnh Quang Hiếu</t>
   </si>
   <si>
-    <t>Hiếu bỏ cuộc</t>
-  </si>
-  <si>
     <t>A3-1-5</t>
   </si>
   <si>
@@ -388,9 +376,6 @@
     <t>Tiến Đức - Lê Thanh Tùng</t>
   </si>
   <si>
-    <t>Tùng bỏ cuộc</t>
-  </si>
-  <si>
     <t>A4-2-5</t>
   </si>
   <si>
@@ -553,9 +538,6 @@
     <t>Phạm Kim Trường - Hồ Trung Hiếu</t>
   </si>
   <si>
-    <t>Trường bỏ cuộc</t>
-  </si>
-  <si>
     <t>B2-3-4</t>
   </si>
   <si>
@@ -622,9 +604,6 @@
     <t>Mai Phạm Công Bằng - Bùi Lê Chiến Thắng</t>
   </si>
   <si>
-    <t>Thắng bỏ cuộc</t>
-  </si>
-  <si>
     <t>B3-2-4</t>
   </si>
   <si>
@@ -1070,6 +1049,46 @@
   </si>
   <si>
     <t>DE2-1-2</t>
+  </si>
+  <si>
+    <r>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="205"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>K46</t>
+    </r>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phúc bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Nguyen Hoang Lam bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Minh bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Trịnh Quang Hiếu bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Lê Thanh Tùng bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Lưu Minh Phúc bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Tùng bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Phạm Kim Trường bỏ cuộc</t>
+  </si>
+  <si>
+    <t>Bùi Lê Chiến Thắng bỏ cuộc</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1102,7 @@
     <numFmt numFmtId="167" formatCode="hh:mm"/>
     <numFmt numFmtId="168" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1115,6 +1134,11 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="205"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -2631,8 +2655,8 @@
   </sheetPr>
   <dimension ref="A1:IV889"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C79" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2834,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="5"/>
@@ -2847,10 +2871,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -2884,10 +2908,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -2921,10 +2945,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -2945,7 +2969,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="5"/>
@@ -2958,10 +2982,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>21</v>
@@ -2995,10 +3019,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -3019,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="5"/>
@@ -3032,10 +3056,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -3066,19 +3090,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G12" s="9">
         <v>0.70833333333333326</v>
@@ -3087,7 +3111,7 @@
         <v>42780</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>18</v>
@@ -3103,19 +3127,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G13" s="9">
         <v>0.54166666666666674</v>
@@ -3124,7 +3148,7 @@
         <v>42782</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>18</v>
@@ -3140,19 +3164,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G14" s="9">
         <v>0.625</v>
@@ -3161,7 +3185,7 @@
         <v>42780</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>18</v>
@@ -3177,19 +3201,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G15" s="9">
         <v>0.75</v>
@@ -3198,7 +3222,7 @@
         <v>42781</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>18</v>
@@ -3214,19 +3238,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="9">
         <v>0.75</v>
@@ -3235,7 +3259,7 @@
         <v>42780</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>18</v>
@@ -3251,19 +3275,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="9">
         <v>0.66666666666666674</v>
@@ -3272,7 +3296,7 @@
         <v>42782</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>18</v>
@@ -3288,19 +3312,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="9">
         <v>0.79166666666666663</v>
@@ -3309,7 +3333,7 @@
         <v>42781</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>18</v>
@@ -3325,19 +3349,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="9">
         <v>0.625</v>
@@ -3346,7 +3370,7 @@
         <v>42778</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>18</v>
@@ -3362,19 +3386,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="9">
         <v>0.66666666666666674</v>
@@ -3383,7 +3407,7 @@
         <v>42778</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>18</v>
@@ -3399,19 +3423,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="9">
         <v>0.54166666666666674</v>
@@ -3420,7 +3444,7 @@
         <v>42778</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>18</v>
@@ -3436,19 +3460,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G22" s="9">
         <v>0.625</v>
@@ -3463,7 +3487,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="5"/>
@@ -3473,19 +3497,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="G23" s="9">
         <v>0.66666666666666674</v>
@@ -3500,7 +3524,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="5"/>
@@ -3510,19 +3534,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9">
         <v>0.58333333333333326</v>
@@ -3537,7 +3561,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="5"/>
@@ -3547,19 +3571,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G25" s="17">
         <v>0.875</v>
@@ -3568,7 +3592,7 @@
         <v>42781</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>18</v>
@@ -3584,19 +3608,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" s="9">
         <v>0.5</v>
@@ -3605,7 +3629,7 @@
         <v>42778</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>18</v>
@@ -3621,19 +3645,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27" s="9">
         <v>0.54166666666666674</v>
@@ -3642,7 +3666,7 @@
         <v>42778</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>18</v>
@@ -3658,19 +3682,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G28" s="9">
         <v>0.66666666666666674</v>
@@ -3679,7 +3703,7 @@
         <v>42778</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>18</v>
@@ -3695,19 +3719,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G29" s="9">
         <v>0.58333333333333326</v>
@@ -3716,7 +3740,7 @@
         <v>42778</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>18</v>
@@ -3732,19 +3756,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G30" s="9">
         <v>0.54166666666666674</v>
@@ -3753,7 +3777,7 @@
         <v>42780</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>18</v>
@@ -3769,19 +3793,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="G31" s="9">
         <v>0.625</v>
@@ -3790,7 +3814,7 @@
         <v>42778</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>18</v>
@@ -3806,19 +3830,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G32" s="9">
         <v>0.625</v>
@@ -3827,13 +3851,13 @@
         <v>42782</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="5"/>
@@ -3843,19 +3867,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G33" s="9">
         <v>0.75</v>
@@ -3864,7 +3888,7 @@
         <v>42779</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>18</v>
@@ -3880,19 +3904,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G34" s="9">
         <v>0.54166666666666674</v>
@@ -3901,13 +3925,13 @@
         <v>42782</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="5"/>
@@ -3917,19 +3941,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G35" s="9">
         <v>0.45833333333333343</v>
@@ -3954,19 +3978,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="F36" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G36" s="9">
         <v>0.625</v>
@@ -3975,7 +3999,7 @@
         <v>42779</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>18</v>
@@ -3991,19 +4015,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="F37" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G37" s="9">
         <v>0.58333333333333326</v>
@@ -4012,13 +4036,13 @@
         <v>42782</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>118</v>
+        <v>344</v>
       </c>
       <c r="L37" s="13"/>
       <c r="M37" s="5"/>
@@ -4028,19 +4052,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="F38" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G38" s="9">
         <v>0.58333333333333326</v>
@@ -4049,7 +4073,7 @@
         <v>42780</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>18</v>
@@ -4065,19 +4089,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G39" s="9">
         <v>0.79166666666666663</v>
@@ -4086,13 +4110,13 @@
         <v>42782</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>118</v>
+        <v>344</v>
       </c>
       <c r="L39" s="13"/>
       <c r="M39" s="5"/>
@@ -4102,19 +4126,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G40" s="9">
         <v>0.875</v>
@@ -4123,7 +4147,7 @@
         <v>42781</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>18</v>
@@ -4139,19 +4163,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E41" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="G41" s="17">
         <v>0.83333333333333337</v>
@@ -4160,7 +4184,7 @@
         <v>42780</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>18</v>
@@ -4176,19 +4200,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G42" s="9">
         <v>0.66666666666666674</v>
@@ -4213,19 +4237,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G43" s="9">
         <v>0.58333333333333326</v>
@@ -4234,7 +4258,7 @@
         <v>42782</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>18</v>
@@ -4250,19 +4274,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G44" s="9">
         <v>0.79166666666666663</v>
@@ -4277,7 +4301,7 @@
         <v>18</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>118</v>
+        <v>346</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="5"/>
@@ -4287,19 +4311,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G45" s="9">
         <v>0.54166666666666674</v>
@@ -4308,7 +4332,7 @@
         <v>42782</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>18</v>
@@ -4324,19 +4348,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G46" s="9">
         <v>0.625</v>
@@ -4345,7 +4369,7 @@
         <v>42782</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>18</v>
@@ -4361,19 +4385,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G47" s="9">
         <v>0.83333333333333337</v>
@@ -4398,19 +4422,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G48" s="9">
         <v>0.58333333333333326</v>
@@ -4419,7 +4443,7 @@
         <v>42782</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>18</v>
@@ -4435,19 +4459,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G49" s="9">
         <v>0.83333333333333337</v>
@@ -4456,7 +4480,7 @@
         <v>42779</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>18</v>
@@ -4472,19 +4496,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G50" s="9">
         <v>0.75</v>
@@ -4493,7 +4517,7 @@
         <v>42779</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>18</v>
@@ -4509,19 +4533,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G51" s="9">
         <v>0.79166666666666663</v>
@@ -4530,7 +4554,7 @@
         <v>42779</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>18</v>
@@ -4546,19 +4570,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G52" s="9">
         <v>0.54166666666666674</v>
@@ -4583,19 +4607,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D53" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G53" s="9">
         <v>0.58333333333333326</v>
@@ -4620,19 +4644,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G54" s="9">
         <v>0.625</v>
@@ -4657,19 +4681,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G55" s="9">
         <v>0.75</v>
@@ -4694,19 +4718,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G56" s="9">
         <v>0.58333333333333326</v>
@@ -4731,19 +4755,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G57" s="9">
         <v>0.45833333333333343</v>
@@ -4768,19 +4792,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G58" s="9">
         <v>0.70833333333333326</v>
@@ -4795,7 +4819,7 @@
         <v>18</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="L58" s="13"/>
       <c r="M58" s="5"/>
@@ -4805,19 +4829,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G59" s="9">
         <v>0.54166666666666674</v>
@@ -4842,19 +4866,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G60" s="9">
         <v>0.79166666666666663</v>
@@ -4879,19 +4903,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G61" s="9">
         <v>0.625</v>
@@ -4916,19 +4940,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G62" s="9">
         <v>0.58333333333333326</v>
@@ -4953,19 +4977,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G63" s="9">
         <v>0.66666666666666674</v>
@@ -4990,19 +5014,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G64" s="9">
         <v>0.70833333333333326</v>
@@ -5027,19 +5051,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G65" s="9">
         <v>0.625</v>
@@ -5048,7 +5072,7 @@
         <v>42778</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J65" s="11" t="s">
         <v>18</v>
@@ -5064,19 +5088,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G66" s="9">
         <v>0.70833333333333326</v>
@@ -5085,13 +5109,13 @@
         <v>42782</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="L66" s="13"/>
       <c r="M66" s="5"/>
@@ -5101,19 +5125,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G67" s="9">
         <v>0.66666666666666674</v>
@@ -5122,7 +5146,7 @@
         <v>42781</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>18</v>
@@ -5138,19 +5162,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G68" s="9">
         <v>0.70833333333333326</v>
@@ -5175,19 +5199,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G69" s="9">
         <v>0.54166666666666674</v>
@@ -5212,19 +5236,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="G70" s="9">
         <v>0.625</v>
@@ -5249,19 +5273,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G71" s="9">
         <v>0.625</v>
@@ -5286,19 +5310,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G72" s="9">
         <v>0.70833333333333326</v>
@@ -5313,7 +5337,7 @@
         <v>18</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L72" s="13"/>
       <c r="M72" s="5"/>
@@ -5323,19 +5347,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G73" s="9">
         <v>0.75</v>
@@ -5360,19 +5384,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G74" s="9">
         <v>0.83333333333333337</v>
@@ -5397,19 +5421,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G75" s="9">
         <v>0.875</v>
@@ -5434,19 +5458,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G76" s="9">
         <v>0.79166666666666663</v>
@@ -5461,7 +5485,7 @@
         <v>18</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="L76" s="13"/>
       <c r="M76" s="5"/>
@@ -5471,19 +5495,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="G77" s="9">
         <v>0.75</v>
@@ -5498,7 +5522,7 @@
         <v>18</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L77" s="13"/>
       <c r="M77" s="5"/>
@@ -5508,19 +5532,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G78" s="9">
         <v>0.83333333333333337</v>
@@ -5535,7 +5559,7 @@
         <v>18</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L78" s="13"/>
       <c r="M78" s="5"/>
@@ -5545,19 +5569,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G79" s="9">
         <v>0.875</v>
@@ -5582,19 +5606,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G80" s="9">
         <v>0.70833333333333326</v>
@@ -5619,19 +5643,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G81" s="9">
         <v>0.79166666666666663</v>
@@ -5656,23 +5680,23 @@
         <v>114</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G82" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="H82" s="63" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>17</v>
@@ -5691,26 +5715,26 @@
         <v>115</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G83" s="9">
         <v>0.625</v>
       </c>
       <c r="H83" s="63" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>18</v>
@@ -5726,23 +5750,23 @@
         <v>116</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G84" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="H84" s="63" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>17</v>
@@ -5761,33 +5785,33 @@
         <v>117</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G85" s="9">
         <v>0.66666666666666663</v>
       </c>
       <c r="H85" s="63" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="12">
         <v>42800</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M85" s="5"/>
     </row>
@@ -5796,14 +5820,14 @@
         <v>118</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>15</v>
@@ -5812,7 +5836,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="H86" s="63" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>17</v>
@@ -5831,23 +5855,23 @@
         <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G87" s="9">
         <v>0.625</v>
       </c>
       <c r="H87" s="63" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>17</v>
@@ -6109,26 +6133,26 @@
         <v>120</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G88" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="H88" s="63" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J88" s="11" t="s">
         <v>18</v>
@@ -6137,7 +6161,7 @@
         <v>42891</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="61"/>
@@ -6389,17 +6413,17 @@
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G89" s="9">
         <v>0.79166666666666663</v>
@@ -6424,10 +6448,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="2" t="str">
@@ -6435,7 +6459,7 @@
         <v>Lim Leng</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G90" s="9">
         <v>0.625</v>
@@ -6451,7 +6475,7 @@
         <v>42921</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M90" s="5"/>
     </row>
@@ -6460,10 +6484,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="2" t="str">
@@ -6471,7 +6495,7 @@
         <v>Hiển Siêu</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G91" s="9">
         <v>0.79166666666666663</v>
@@ -6487,7 +6511,7 @@
         <v>42862</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M91" s="5"/>
     </row>
@@ -6496,10 +6520,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="2" t="str">
@@ -6524,7 +6548,7 @@
         <v>42918</v>
       </c>
       <c r="L92" s="23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M92" s="5"/>
     </row>
@@ -6533,14 +6557,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="str">
         <f>'DE 9 Bi'!G2</f>
@@ -6553,14 +6577,14 @@
         <v>42784</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="12">
         <v>42919</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M93" s="5"/>
     </row>
@@ -6569,17 +6593,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G94" s="9">
         <v>0.66666666666666674</v>
@@ -6588,7 +6612,7 @@
         <v>42785</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="24"/>
@@ -6600,17 +6624,17 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G95" s="9">
         <v>0.66666666666666674</v>
@@ -6619,11 +6643,11 @@
         <v>42785</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -6633,17 +6657,17 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G96" s="9">
         <v>0.83333333333333337</v>
@@ -6652,7 +6676,7 @@
         <v>42785</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -18587,10 +18611,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="5"/>
@@ -18602,10 +18626,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -18617,10 +18641,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -18632,10 +18656,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -18647,10 +18671,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -18662,10 +18686,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -18677,10 +18701,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -18692,10 +18716,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -18707,10 +18731,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -18725,7 +18749,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -18737,10 +18761,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -18752,10 +18776,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -18767,10 +18791,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -18782,10 +18806,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -18797,10 +18821,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -18815,7 +18839,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -18827,10 +18851,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -18842,10 +18866,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -18857,10 +18881,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -18872,10 +18896,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -18887,10 +18911,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -18902,10 +18926,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -18917,10 +18941,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -18932,10 +18956,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -18947,10 +18971,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -18962,13 +18986,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -18979,10 +19003,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -18994,10 +19018,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -19009,10 +19033,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -19024,10 +19048,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -19042,7 +19066,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -19054,10 +19078,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -19069,10 +19093,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -19084,10 +19108,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -19102,7 +19126,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -19114,10 +19138,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -19129,10 +19153,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -19147,7 +19171,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -19159,10 +19183,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -19174,10 +19198,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -19189,10 +19213,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -19204,10 +19228,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -19219,10 +19243,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -19234,10 +19258,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -19280,16 +19304,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -19297,18 +19321,18 @@
         <v>0.375</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="32">
         <v>42778</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -19336,7 +19360,7 @@
         <v>0.41666666666666657</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J2" s="32">
         <v>42779</v>
@@ -19351,7 +19375,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D3" s="23" t="str">
         <f>$A$2&amp;"-"&amp;B$2&amp;"-"&amp;B4</f>
@@ -19386,7 +19410,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D4" s="23" t="str">
         <f>$A$2&amp;"-"&amp;B$2&amp;"-"&amp;B5</f>
@@ -19683,7 +19707,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="22"/>
       <c r="D16" s="35" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="5"/>
@@ -19700,7 +19724,7 @@
       <c r="B17" s="5"/>
       <c r="C17" s="22"/>
       <c r="D17" s="35" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="5"/>
@@ -19717,7 +19741,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="22"/>
       <c r="D18" s="35" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="5"/>
@@ -19732,7 +19756,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="22"/>
       <c r="D19" s="40" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="5"/>
@@ -19780,49 +19804,49 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -20008,7 +20032,7 @@
     </row>
     <row r="5" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>B$1&amp;"."&amp;$A2</f>
@@ -20050,7 +20074,7 @@
         <v>15</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="W5" s="2" t="str">
         <f>U9</f>
@@ -20059,7 +20083,7 @@
     </row>
     <row r="6" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>C$1&amp;"."&amp;$A2</f>
@@ -20091,17 +20115,17 @@
         <v>A2.1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="T6" s="2" t="str">
         <f>C$1&amp;"."&amp;$A3</f>
         <v>A2.2</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="W6" s="2" t="str">
         <f>U10</f>
@@ -20110,7 +20134,7 @@
     </row>
     <row r="7" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>D$1&amp;"."&amp;$A2</f>
@@ -20142,17 +20166,17 @@
         <v>A3.1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T7" s="2" t="str">
         <f>D$1&amp;"."&amp;$A3</f>
         <v>A3.2</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="W7" s="2" t="str">
         <f>U11</f>
@@ -20161,7 +20185,7 @@
     </row>
     <row r="8" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>E$1&amp;"."&amp;$A2</f>
@@ -20193,17 +20217,17 @@
         <v>A4.1</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="T8" s="2" t="str">
         <f>E$1&amp;"."&amp;$A3</f>
         <v>A4.2</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="W8" s="2" t="str">
         <f>U12</f>
@@ -20212,7 +20236,7 @@
     </row>
     <row r="9" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>F$1&amp;"."&amp;$A2</f>
@@ -20244,17 +20268,17 @@
         <v>B1.1</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="T9" s="2" t="str">
         <f>F$1&amp;"."&amp;$A3</f>
         <v>B1.2</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="W9" s="2" t="str">
         <f>U5</f>
@@ -20263,7 +20287,7 @@
     </row>
     <row r="10" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>G$1&amp;"."&amp;$A2</f>
@@ -20295,17 +20319,17 @@
         <v>B2.1</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="T10" s="2" t="str">
         <f>G$1&amp;"."&amp;$A3</f>
         <v>B2.2</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="W10" s="2" t="str">
         <f>U6</f>
@@ -20314,7 +20338,7 @@
     </row>
     <row r="11" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>H$1&amp;"."&amp;$A2</f>
@@ -20346,17 +20370,17 @@
         <v>B3.1</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="T11" s="2" t="str">
         <f>H$1&amp;"."&amp;$A3</f>
         <v>B3.2</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="W11" s="2" t="str">
         <f>U7</f>
@@ -20365,7 +20389,7 @@
     </row>
     <row r="12" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>I$1&amp;"."&amp;$A2</f>
@@ -20397,17 +20421,17 @@
         <v>B4.1</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="T12" s="2" t="str">
         <f>I$1&amp;"."&amp;$A3</f>
         <v>B4.2</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="W12" s="2" t="str">
         <f>U8</f>
@@ -20416,7 +20440,7 @@
     </row>
     <row r="13" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>J$1&amp;"."&amp;$A2</f>
@@ -20455,10 +20479,10 @@
         <v>C1.2</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="W13" s="2" t="str">
         <f>U17</f>
@@ -20467,7 +20491,7 @@
     </row>
     <row r="14" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>K$1&amp;"."&amp;$A2</f>
@@ -20499,17 +20523,17 @@
         <v>C2.1</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T14" s="2" t="str">
         <f>K$1&amp;"."&amp;$A3</f>
         <v>C2.2</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="W14" s="2" t="str">
         <f>U18</f>
@@ -20518,7 +20542,7 @@
     </row>
     <row r="15" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>L$1&amp;"."&amp;$A2</f>
@@ -20550,7 +20574,7 @@
         <v>C3.1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="T15" s="2" t="str">
         <f>L$1&amp;"."&amp;$A3</f>
@@ -20560,7 +20584,7 @@
         <v>21</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="W15" s="2" t="str">
         <f>U19</f>
@@ -20569,7 +20593,7 @@
     </row>
     <row r="16" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>M$1&amp;"."&amp;$A2</f>
@@ -20601,17 +20625,17 @@
         <v>C4.1</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="T16" s="2" t="str">
         <f>M$1&amp;"."&amp;$A3</f>
         <v>C4.2</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="W16" s="2" t="str">
         <f>U20</f>
@@ -20620,7 +20644,7 @@
     </row>
     <row r="17" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>N$1&amp;"."&amp;$A2</f>
@@ -20652,17 +20676,17 @@
         <v>D1.1</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="T17" s="2" t="str">
         <f>N$1&amp;"."&amp;$A3</f>
         <v>D1.2</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="W17" s="2" t="str">
         <f>U13</f>
@@ -20671,7 +20695,7 @@
     </row>
     <row r="18" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>O$1&amp;"."&amp;$A2</f>
@@ -20703,7 +20727,7 @@
         <v>D2.1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="T18" s="2" t="str">
         <f>O$1&amp;"."&amp;$A3</f>
@@ -20713,7 +20737,7 @@
         <v>15</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="W18" s="2" t="str">
         <f>U14</f>
@@ -20722,7 +20746,7 @@
     </row>
     <row r="19" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>P$1&amp;"."&amp;$A2</f>
@@ -20754,17 +20778,17 @@
         <v>D3.1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="T19" s="2" t="str">
         <f>P$1&amp;"."&amp;$A3</f>
         <v>D3.2</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="W19" s="2" t="str">
         <f>U15</f>
@@ -20773,7 +20797,7 @@
     </row>
     <row r="20" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>Q$1&amp;"."&amp;$A2</f>
@@ -20805,7 +20829,7 @@
         <v>D4.1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="T20" s="2" t="str">
         <f>Q$1&amp;"."&amp;$A3</f>
@@ -20815,7 +20839,7 @@
         <v>16</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="W20" s="2" t="str">
         <f>U16</f>
@@ -20824,7 +20848,7 @@
     </row>
     <row r="21" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -20856,7 +20880,7 @@
     </row>
     <row r="22" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B22" s="6">
         <v>2</v>
@@ -20888,7 +20912,7 @@
     </row>
     <row r="23" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -20920,7 +20944,7 @@
     </row>
     <row r="24" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B24" s="6">
         <v>4</v>
@@ -20952,7 +20976,7 @@
     </row>
     <row r="25" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -20984,7 +21008,7 @@
     </row>
     <row r="26" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B26" s="6">
         <v>2</v>
@@ -21016,7 +21040,7 @@
     </row>
     <row r="27" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
@@ -21048,7 +21072,7 @@
     </row>
     <row r="28" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B28" s="6">
         <v>4</v>
@@ -21080,7 +21104,7 @@
     </row>
     <row r="29" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -21112,7 +21136,7 @@
     </row>
     <row r="30" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -21144,7 +21168,7 @@
     </row>
     <row r="31" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -21176,7 +21200,7 @@
     </row>
     <row r="32" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B32" s="6">
         <v>2</v>
@@ -21208,7 +21232,7 @@
     </row>
     <row r="33" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B33" s="6">
         <v>9</v>
@@ -21240,7 +21264,7 @@
     </row>
     <row r="34" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B34" s="6">
         <v>10</v>
@@ -21305,7 +21329,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21320,7 +21344,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="22"/>
       <c r="G2" s="48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="49">
         <v>42891</v>
@@ -21328,7 +21352,7 @@
     </row>
     <row r="3" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="39"/>
@@ -21337,7 +21361,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="52"/>
       <c r="H3" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21346,12 +21370,12 @@
         <v>42921</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="22"/>
       <c r="F4" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G4" s="57">
         <v>42801</v>
@@ -21360,7 +21384,7 @@
     </row>
     <row r="5" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="24"/>
@@ -21369,7 +21393,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="45"/>
       <c r="H5" s="53" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21377,14 +21401,14 @@
         <v>42772</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="39"/>
       <c r="E6" s="5"/>
       <c r="F6" s="22"/>
       <c r="G6" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="49">
         <v>42891</v>
@@ -21392,18 +21416,18 @@
     </row>
     <row r="7" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="50" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="22"/>
       <c r="D7" s="64" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="5"/>
       <c r="G7" s="52"/>
       <c r="H7" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21411,20 +21435,20 @@
       <c r="B8" s="5"/>
       <c r="C8" s="22"/>
       <c r="D8" s="58" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="5"/>
@@ -21433,7 +21457,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="45"/>
       <c r="H9" s="53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21441,14 +21465,14 @@
         <v>42861</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="22"/>
       <c r="G10" s="48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H10" s="49">
         <v>42861</v>
@@ -21456,7 +21480,7 @@
     </row>
     <row r="11" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="39"/>
@@ -21465,7 +21489,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="52"/>
       <c r="H11" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21474,12 +21498,12 @@
         <v>42921</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22"/>
       <c r="F12" s="56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G12" s="57">
         <v>42773</v>
@@ -21488,7 +21512,7 @@
     </row>
     <row r="13" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="24"/>
@@ -21497,7 +21521,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="45"/>
       <c r="H13" s="53" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21505,7 +21529,7 @@
         <v>42889</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
@@ -21520,7 +21544,7 @@
     </row>
     <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="59" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="5"/>
@@ -21570,7 +21594,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21585,7 +21609,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="22"/>
       <c r="G2" s="48" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H2" s="49">
         <v>42861</v>
@@ -21593,7 +21617,7 @@
     </row>
     <row r="3" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="39"/>
@@ -21602,7 +21626,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="52"/>
       <c r="H3" s="53" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21616,7 +21640,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="22"/>
       <c r="F4" s="56" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G4" s="57">
         <v>42921</v>
@@ -21625,7 +21649,7 @@
     </row>
     <row r="5" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="24"/>
@@ -21634,7 +21658,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="45"/>
       <c r="H5" s="53" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21649,10 +21673,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="22"/>
       <c r="G6" s="48" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21679,7 +21703,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="5"/>
@@ -21687,7 +21711,7 @@
     </row>
     <row r="9" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="50" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="5"/>
@@ -21696,7 +21720,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="45"/>
       <c r="H9" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21704,14 +21728,14 @@
         <v>42831</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="22"/>
       <c r="G10" s="48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H10" s="49">
         <v>42861</v>
@@ -21719,7 +21743,7 @@
     </row>
     <row r="11" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="50" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="39"/>
@@ -21728,7 +21752,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="52"/>
       <c r="H11" s="53" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21737,12 +21761,12 @@
         <v>42920</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="22"/>
       <c r="F12" s="56" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G12" s="57">
         <v>42917</v>
@@ -21751,7 +21775,7 @@
     </row>
     <row r="13" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="50" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="24"/>
@@ -21760,7 +21784,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="45"/>
       <c r="H13" s="53" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21768,17 +21792,17 @@
         <v>42831</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="22"/>
       <c r="G14" s="48" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21792,7 +21816,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="52"/>
       <c r="H15" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
